--- a/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
@@ -687,7 +687,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
     <t>Section_Health_Certificates_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-composition)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-composition)
 </t>
   </si>
 </sst>

--- a/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
@@ -1474,7 +1474,7 @@
     <t>.component.section</t>
   </si>
   <si>
-    <t>Section_Health_Certificates</t>
+    <t>sectionHealthCertificates</t>
   </si>
   <si>
     <t>Certificates Section</t>
@@ -1501,10 +1501,10 @@
 </t>
   </si>
   <si>
-    <t>Section_Health_Certificates_Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-composition)
+    <t>svcEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-composition)
 </t>
   </si>
 </sst>
@@ -1664,7 +1664,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shf-composition.xlsx
@@ -1501,10 +1501,10 @@
 </t>
   </si>
   <si>
-    <t>svcEntry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-composition)
+    <t>shcEntry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-composition)
 </t>
   </si>
 </sst>
